--- a/eco_mapping_summary/dat/SiteC_EcosystemUnits.xlsx
+++ b/eco_mapping_summary/dat/SiteC_EcosystemUnits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/701b89dbe10b03f1/Documents/R-Working/TEM-PEM-EU-Summary/dat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff.matheson\Documents\R_working\BBFM\eco_mapping_summary\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{17299478-3DF4-40CF-BB3D-D836AAAC403B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9B2BC03E-461E-43E0-8F3F-43958FBA0954}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B72208C-1F73-46AF-A218-DEFA4ED5E705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4770" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapCodes" sheetId="1" r:id="rId1"/>
@@ -26,20 +26,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BWBS_old_to_new!$A$9:$K$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'CEM EUs'!$A$1:$E$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'EUs with Habitat Category'!$A$4:$N$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapCodes!$A$2:$J$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapCodes!$A$2:$J$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BWBS_old_to_new!$A$1:$K$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MapCodes!$C$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -140,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="480">
   <si>
     <t>New BWBS site classification to be used for ground assessments and for any future habtiat mapping.</t>
   </si>
@@ -1480,27 +1482,6 @@
     <t>Forested Ecosystems</t>
   </si>
   <si>
-    <t>Forested Ecosystem</t>
-  </si>
-  <si>
-    <t>Non-correlated unit. Subxeric sites on moderately well-drained to well-drained sites. Trees are stunted, mapped up to SS3. Aspen stands originally mapped as AS units in structural stages &gt;3 were reclassified as AMw:ap or SWw:as ecosystems. Closest match to Gb51. If there is Sw, likely classify as 101$ or 104$. in EIS, was considered a forested unit. Called Shrubland here.</t>
-  </si>
-  <si>
-    <t>Wetland Ecosystem</t>
-  </si>
-  <si>
-    <t>Grassland Ecosystem</t>
-  </si>
-  <si>
-    <t>Shrubland Ecosystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In EIS, was considered a forested ecosystem, but is really a sparselt forested wetland. </t>
-  </si>
-  <si>
-    <t>Non-vegetated/Anthropogenic Ecosystems</t>
-  </si>
-  <si>
     <t>Sxw - Oak fern</t>
   </si>
   <si>
@@ -1583,6 +1564,24 @@
   </si>
   <si>
     <t>FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In EIS, was considered a forested Ecosystems, but is really a sparselt forested wetland. </t>
+  </si>
+  <si>
+    <t>Shrubland Ecosystems</t>
+  </si>
+  <si>
+    <t>Non-correlated unit. Subxeric sites on moderately well-drained to well-drained sites. Trees are stunted, mapped up to SS3. Aspen stands originally mapped as AS units in structural stages &gt;3 were reclassified as AMw:ap or SWw:as Ecosystemss. Closest match to Gb51. If there is Sw, likely classify as 101$ or 104$. in EIS, was considered a forested unit. Called Shrubland here.</t>
+  </si>
+  <si>
+    <t>Grassland Ecosystems</t>
+  </si>
+  <si>
+    <t>Naturally Non-vegetated Ecosystems</t>
+  </si>
+  <si>
+    <t>Anthropogenic Areas</t>
   </si>
 </sst>
 </file>
@@ -2159,13 +2158,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6718,7 +6717,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{346E6540-6FCA-46EE-9A48-06A8A244D8B7}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{346E6540-6FCA-46EE-9A48-06A8A244D8B7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6844,7 +6843,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8277,26 +8276,26 @@
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="98" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="99" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="98" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="98" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="101" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="102" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="99" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="99" customWidth="1"/>
-    <col min="10" max="10" width="68.140625" style="100" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="98"/>
+    <col min="1" max="1" width="14.1796875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" style="101" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="102" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="99" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="99" customWidth="1"/>
+    <col min="10" max="10" width="68.1796875" style="100" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="95" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
         <v>440</v>
       </c>
@@ -8304,7 +8303,7 @@
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
     </row>
-    <row r="2" spans="1:10" s="97" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="97" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>10</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E2" s="82" t="s">
         <v>7</v>
@@ -8336,18 +8335,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="85" t="str">
-        <f>A3&amp;C3</f>
+        <f t="shared" ref="D3:D34" si="0">A3&amp;C3</f>
         <v>BWBSmw1AM</v>
       </c>
       <c r="E3" s="85" t="s">
@@ -8367,18 +8366,18 @@
       </c>
       <c r="J3" s="89"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="85" t="str">
-        <f>A4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1LL</v>
       </c>
       <c r="E4" s="85" t="s">
@@ -8398,18 +8397,18 @@
       </c>
       <c r="J4" s="89"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="85" t="str">
-        <f>A5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SW</v>
       </c>
       <c r="E5" s="85" t="s">
@@ -8429,18 +8428,18 @@
       </c>
       <c r="J5" s="89"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="85" t="str">
-        <f>A6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1BL</v>
       </c>
       <c r="E6" s="85" t="s">
@@ -8460,18 +8459,18 @@
       </c>
       <c r="J6" s="89"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="85" t="str">
-        <f>A7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SO</v>
       </c>
       <c r="E7" s="85" t="s">
@@ -8491,18 +8490,18 @@
       </c>
       <c r="J7" s="89"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="85" t="str">
-        <f>A8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SC</v>
       </c>
       <c r="E8" s="85" t="s">
@@ -8524,18 +8523,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B9" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="85" t="str">
-        <f>A9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SH</v>
       </c>
       <c r="E9" s="85" t="s">
@@ -8555,18 +8554,18 @@
       </c>
       <c r="J9" s="89"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B10" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="84" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="85" t="str">
-        <f>A10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1Fm02</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -8588,18 +8587,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C11" s="84" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="85" t="str">
-        <f>A11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1AM:ap</v>
       </c>
       <c r="E11" s="91" t="s">
@@ -8619,18 +8618,18 @@
       </c>
       <c r="J11" s="89"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="85" t="str">
-        <f>A12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1LL:ak</v>
       </c>
       <c r="E12" s="91" t="s">
@@ -8650,18 +8649,18 @@
       </c>
       <c r="J12" s="89"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C13" s="84" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="85" t="str">
-        <f>A13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SW:as</v>
       </c>
       <c r="E13" s="91" t="s">
@@ -8681,18 +8680,18 @@
       </c>
       <c r="J13" s="89"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14" s="84" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="85" t="str">
-        <f>A14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1BL:al</v>
       </c>
       <c r="E14" s="91" t="s">
@@ -8712,18 +8711,18 @@
       </c>
       <c r="J14" s="89"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" s="84" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="85" t="str">
-        <f>A15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SC:ab</v>
       </c>
       <c r="E15" s="91" t="s">
@@ -8743,18 +8742,18 @@
       </c>
       <c r="J15" s="89"/>
     </row>
-    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A16" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" s="84" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="85" t="str">
-        <f>A16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SC:ep</v>
       </c>
       <c r="E16" s="91" t="s">
@@ -8776,18 +8775,18 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="84" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="85" t="str">
-        <f>A17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SH:ac</v>
       </c>
       <c r="E17" s="91" t="s">
@@ -8807,18 +8806,18 @@
       </c>
       <c r="J17" s="89"/>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="50" x14ac:dyDescent="0.35">
       <c r="A18" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" s="84" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="85" t="str">
-        <f>A18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SH:ep</v>
       </c>
       <c r="E18" s="91" t="s">
@@ -8840,18 +8839,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B19" s="103" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C19" s="84" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="85" t="str">
-        <f>A19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1BT</v>
       </c>
       <c r="E19" s="85" t="s">
@@ -8870,21 +8869,21 @@
         <v>36</v>
       </c>
       <c r="J19" s="89" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B20" s="103" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C20" s="84" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="85" t="str">
-        <f>A20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1TS</v>
       </c>
       <c r="E20" s="93" t="s">
@@ -8906,18 +8905,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A21" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B21" s="103" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C21" s="84" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="85" t="str">
-        <f>A21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1SE</v>
       </c>
       <c r="E21" s="85" t="s">
@@ -8939,18 +8938,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A22" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C22" s="84" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="85" t="str">
-        <f>A22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1WS</v>
       </c>
       <c r="E22" s="85" t="s">
@@ -8972,18 +8971,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C23" s="84" t="s">
         <v>129</v>
       </c>
       <c r="D23" s="85" t="str">
-        <f>A23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1WH</v>
       </c>
       <c r="E23" s="85" t="s">
@@ -9005,18 +9004,18 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A24" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="C24" s="84" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="85" t="str">
-        <f>A24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1AS</v>
       </c>
       <c r="E24" s="85" t="s">
@@ -9035,21 +9034,21 @@
         <v>87</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A25" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="C25" s="84" t="s">
         <v>141</v>
       </c>
       <c r="D25" s="85" t="str">
-        <f>A25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1WW</v>
       </c>
       <c r="E25" s="85" t="s">
@@ -9071,18 +9070,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B26" s="103" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C26" s="84" t="s">
         <v>146</v>
       </c>
       <c r="D26" s="85" t="str">
-        <f>A26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1CB</v>
       </c>
       <c r="E26" s="85" t="s">
@@ -9102,18 +9101,18 @@
       </c>
       <c r="J26" s="89"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B27" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C27" s="84" t="s">
         <v>148</v>
       </c>
       <c r="D27" s="85" t="str">
-        <f>A27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1CF</v>
       </c>
       <c r="E27" s="85" t="s">
@@ -9135,18 +9134,18 @@
         <v>443</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B28" s="103" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C28" s="84" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="85" t="str">
-        <f>A28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1ES</v>
       </c>
       <c r="E28" s="85" t="s">
@@ -9166,18 +9165,18 @@
       </c>
       <c r="J28" s="89"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B29" s="103" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C29" s="84" t="s">
         <v>152</v>
       </c>
       <c r="D29" s="85" t="str">
-        <f>A29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1GB</v>
       </c>
       <c r="E29" s="85" t="s">
@@ -9197,18 +9196,18 @@
       </c>
       <c r="J29" s="89"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B30" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C30" s="84" t="s">
         <v>154</v>
       </c>
       <c r="D30" s="85" t="str">
-        <f>A30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1GP</v>
       </c>
       <c r="E30" s="85" t="s">
@@ -9228,18 +9227,18 @@
       </c>
       <c r="J30" s="89"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B31" s="103" t="s">
-        <v>452</v>
+        <v>249</v>
       </c>
       <c r="C31" s="84" t="s">
         <v>156</v>
       </c>
       <c r="D31" s="85" t="str">
-        <f>A31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1LA</v>
       </c>
       <c r="E31" s="85" t="s">
@@ -9259,18 +9258,18 @@
       </c>
       <c r="J31" s="89"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B32" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C32" s="84" t="s">
         <v>158</v>
       </c>
       <c r="D32" s="85" t="str">
-        <f>A32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1MI</v>
       </c>
       <c r="E32" s="85" t="s">
@@ -9290,18 +9289,18 @@
       </c>
       <c r="J32" s="89"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B33" s="103" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="C33" s="84" t="s">
         <v>160</v>
       </c>
       <c r="D33" s="85" t="str">
-        <f>A33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1OW</v>
       </c>
       <c r="E33" s="85" t="s">
@@ -9321,18 +9320,18 @@
       </c>
       <c r="J33" s="89"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B34" s="103" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="C34" s="84" t="s">
         <v>162</v>
       </c>
       <c r="D34" s="85" t="str">
-        <f>A34&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>BWBSmw1PD</v>
       </c>
       <c r="E34" s="85" t="s">
@@ -9352,18 +9351,18 @@
       </c>
       <c r="J34" s="89"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B35" s="103" t="s">
-        <v>452</v>
+        <v>249</v>
       </c>
       <c r="C35" s="84" t="s">
         <v>164</v>
       </c>
       <c r="D35" s="85" t="str">
-        <f>A35&amp;C35</f>
+        <f t="shared" ref="D35:D63" si="1">A35&amp;C35</f>
         <v>BWBSmw1RE</v>
       </c>
       <c r="E35" s="85" t="s">
@@ -9383,18 +9382,18 @@
       </c>
       <c r="J35" s="89"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B36" s="103" t="s">
-        <v>452</v>
+        <v>249</v>
       </c>
       <c r="C36" s="84" t="s">
         <v>166</v>
       </c>
       <c r="D36" s="85" t="str">
-        <f>A36&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>BWBSmw1RI</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -9414,18 +9413,18 @@
       </c>
       <c r="J36" s="89"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B37" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C37" s="84" t="s">
         <v>168</v>
       </c>
       <c r="D37" s="85" t="str">
-        <f>A37&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>BWBSmw1RN</v>
       </c>
       <c r="E37" s="85" t="s">
@@ -9445,18 +9444,18 @@
       </c>
       <c r="J37" s="89"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B38" s="103" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C38" s="84" t="s">
         <v>170</v>
       </c>
       <c r="D38" s="85" t="str">
-        <f>A38&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>BWBSmw1RO</v>
       </c>
       <c r="E38" s="85" t="s">
@@ -9476,18 +9475,18 @@
       </c>
       <c r="J38" s="89"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B39" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C39" s="84" t="s">
         <v>172</v>
       </c>
       <c r="D39" s="85" t="str">
-        <f>A39&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>BWBSmw1RW</v>
       </c>
       <c r="E39" s="85" t="s">
@@ -9507,18 +9506,18 @@
       </c>
       <c r="J39" s="89"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B40" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C40" s="84" t="s">
         <v>174</v>
       </c>
       <c r="D40" s="85" t="str">
-        <f>A40&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>BWBSmw1RY</v>
       </c>
       <c r="E40" s="85" t="s">
@@ -9538,18 +9537,18 @@
       </c>
       <c r="J40" s="89"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B41" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C41" s="84" t="s">
         <v>176</v>
       </c>
       <c r="D41" s="85" t="str">
-        <f>A41&amp;C41</f>
+        <f t="shared" si="1"/>
         <v>BWBSmw1RZ</v>
       </c>
       <c r="E41" s="85" t="s">
@@ -9569,18 +9568,18 @@
       </c>
       <c r="J41" s="89"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="103" t="s">
         <v>441</v>
       </c>
       <c r="B42" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C42" s="84" t="s">
         <v>178</v>
       </c>
       <c r="D42" s="85" t="str">
-        <f>A42&amp;C42</f>
+        <f t="shared" si="1"/>
         <v>BWBSmw1UR</v>
       </c>
       <c r="E42" s="85" t="s">
@@ -9600,25 +9599,25 @@
       </c>
       <c r="J42" s="89"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="103" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B43" s="103" t="s">
         <v>445</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D43" s="88" t="str">
-        <f>A43&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>BWBSwk1SM</v>
       </c>
       <c r="E43" s="94" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="104" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G43" s="106">
         <v>101</v>
@@ -9627,9 +9626,9 @@
       <c r="I43" s="88"/>
       <c r="J43" s="89"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="103" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B44" s="103" t="s">
         <v>445</v>
@@ -9638,14 +9637,14 @@
         <v>26</v>
       </c>
       <c r="D44" s="85" t="str">
-        <f>A44&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>BWBSwk1SW</v>
       </c>
       <c r="E44" s="94" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="105" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G44" s="106">
         <v>102</v>
@@ -9654,25 +9653,25 @@
       <c r="I44" s="88"/>
       <c r="J44" s="89"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="103" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B45" s="103" t="s">
         <v>445</v>
       </c>
       <c r="C45" s="88" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D45" s="85" t="str">
-        <f>A45&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>BWBSwk1SW:ss</v>
       </c>
-      <c r="E45" s="109" t="s">
+      <c r="E45" s="107" t="s">
         <v>76</v>
       </c>
       <c r="F45" s="105" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G45" s="106">
         <v>103</v>
@@ -9681,9 +9680,9 @@
       <c r="I45" s="88"/>
       <c r="J45" s="89"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="103" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B46" s="103" t="s">
         <v>445</v>
@@ -9692,14 +9691,14 @@
         <v>42</v>
       </c>
       <c r="D46" s="88" t="str">
-        <f>A46&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>BWBSwk1SC</v>
       </c>
       <c r="E46" s="94" t="s">
         <v>38</v>
       </c>
       <c r="F46" s="103" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G46" s="106">
         <v>105</v>
@@ -9708,25 +9707,25 @@
       <c r="I46" s="88"/>
       <c r="J46" s="89"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="103" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B47" s="103" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D47" s="88" t="str">
-        <f>A47&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>BWBSwk1TA</v>
       </c>
       <c r="E47" s="94" t="s">
         <v>87</v>
       </c>
       <c r="F47" s="104" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G47" s="106">
         <v>106</v>
@@ -9735,18 +9734,18 @@
       <c r="I47" s="88"/>
       <c r="J47" s="89"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="103" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C48" s="88" t="s">
         <v>170</v>
       </c>
       <c r="D48" s="88" t="str">
-        <f>A48&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>BWBSwk1RO</v>
       </c>
       <c r="E48" s="94" t="s">
@@ -9762,25 +9761,25 @@
       <c r="I48" s="88"/>
       <c r="J48" s="89"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="103" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B49" s="103" t="s">
         <v>445</v>
       </c>
       <c r="C49" s="88" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D49" s="85" t="str">
-        <f>A49&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>ESSFmv2FR</v>
       </c>
       <c r="E49" s="94" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="105" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G49" s="106">
         <v>201</v>
@@ -9789,25 +9788,25 @@
       <c r="I49" s="88"/>
       <c r="J49" s="89"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="103" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B50" s="103" t="s">
         <v>445</v>
       </c>
       <c r="C50" s="88" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D50" s="88" t="str">
-        <f>A50&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>ESSFmv2FL</v>
       </c>
       <c r="E50" s="94" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="104" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G50" s="106">
         <v>202</v>
@@ -9816,9 +9815,9 @@
       <c r="I50" s="88"/>
       <c r="J50" s="89"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B51" s="103" t="s">
         <v>445</v>
@@ -9827,14 +9826,14 @@
         <v>37</v>
       </c>
       <c r="D51" s="85" t="str">
-        <f>A51&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2SO</v>
       </c>
       <c r="E51" s="94" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="104" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G51" s="106">
         <v>301</v>
@@ -9843,25 +9842,25 @@
       <c r="I51" s="88"/>
       <c r="J51" s="89"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B52" s="103" t="s">
         <v>445</v>
       </c>
       <c r="C52" s="88" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D52" s="85" t="str">
-        <f>A52&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2LH</v>
       </c>
       <c r="E52" s="94" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="104" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G52" s="106">
         <v>302</v>
@@ -9870,9 +9869,9 @@
       <c r="I52" s="88"/>
       <c r="J52" s="89"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B53" s="103" t="s">
         <v>445</v>
@@ -9881,14 +9880,14 @@
         <v>42</v>
       </c>
       <c r="D53" s="85" t="str">
-        <f>A53&amp;C53</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2SC</v>
       </c>
       <c r="E53" s="94" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="104" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G53" s="106">
         <v>303</v>
@@ -9897,25 +9896,25 @@
       <c r="I53" s="88"/>
       <c r="J53" s="89"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B54" s="103" t="s">
         <v>445</v>
       </c>
       <c r="C54" s="88" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D54" s="85" t="str">
-        <f>A54&amp;C54</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2BF</v>
       </c>
       <c r="E54" s="94" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="104" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G54" s="106">
         <v>304</v>
@@ -9924,25 +9923,25 @@
       <c r="I54" s="88"/>
       <c r="J54" s="89"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B55" s="103" t="s">
         <v>445</v>
       </c>
       <c r="C55" s="88" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D55" s="85" t="str">
-        <f>A55&amp;C55</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2SD</v>
       </c>
       <c r="E55" s="94" t="s">
         <v>38</v>
       </c>
       <c r="F55" s="104" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G55" s="106">
         <v>305</v>
@@ -9951,9 +9950,9 @@
       <c r="I55" s="88"/>
       <c r="J55" s="89"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B56" s="103" t="s">
         <v>445</v>
@@ -9962,14 +9961,14 @@
         <v>46</v>
       </c>
       <c r="D56" s="85" t="str">
-        <f>A56&amp;C56</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2SH</v>
       </c>
       <c r="E56" s="94" t="s">
         <v>43</v>
       </c>
       <c r="F56" s="104" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G56" s="106">
         <v>306</v>
@@ -9978,9 +9977,9 @@
       <c r="I56" s="88"/>
       <c r="J56" s="89"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B57" s="103" t="s">
         <v>445</v>
@@ -9989,7 +9988,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="85" t="str">
-        <f>A57&amp;C57</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2Fm02</v>
       </c>
       <c r="E57" s="94" t="s">
@@ -10005,18 +10004,18 @@
       <c r="I57" s="88"/>
       <c r="J57" s="89"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B58" s="103" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C58" s="88" t="s">
         <v>115</v>
       </c>
       <c r="D58" s="85" t="str">
-        <f>A58&amp;C58</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2Wf02</v>
       </c>
       <c r="E58" s="94" t="s">
@@ -10032,25 +10031,25 @@
       <c r="I58" s="88"/>
       <c r="J58" s="89"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B59" s="103" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D59" s="85" t="str">
-        <f>A59&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2Wf13</v>
       </c>
       <c r="E59" s="94" t="s">
         <v>110</v>
       </c>
       <c r="F59" s="104" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G59" s="106">
         <v>309</v>
@@ -10059,18 +10058,18 @@
       <c r="I59" s="88"/>
       <c r="J59" s="89"/>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B60" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D60" s="88" t="str">
-        <f>A60&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2GP</v>
       </c>
       <c r="E60" s="94" t="s">
@@ -10086,18 +10085,18 @@
       <c r="I60" s="88"/>
       <c r="J60" s="89"/>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B61" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>168</v>
       </c>
       <c r="D61" s="88" t="str">
-        <f>A61&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2RN</v>
       </c>
       <c r="E61" s="94" t="s">
@@ -10113,18 +10112,18 @@
       <c r="I61" s="88"/>
       <c r="J61" s="89"/>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B62" s="103" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>176</v>
       </c>
       <c r="D62" s="88" t="str">
-        <f>A62&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2RZ</v>
       </c>
       <c r="E62" s="94" t="s">
@@ -10140,18 +10139,18 @@
       <c r="I62" s="88"/>
       <c r="J62" s="89"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="103" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B63" s="103" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C63" s="88" t="s">
         <v>170</v>
       </c>
       <c r="D63" s="88" t="str">
-        <f>A63&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>SBSwk2RO</v>
       </c>
       <c r="E63" s="94" t="s">
@@ -10168,7 +10167,7 @@
       <c r="J63" s="89"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J53" xr:uid="{A09A6FA5-1D93-42AF-BEEC-64B2A7908211}">
+  <autoFilter ref="A2:J63" xr:uid="{A09A6FA5-1D93-42AF-BEEC-64B2A7908211}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J63">
       <sortCondition ref="G2:G53"/>
     </sortState>
@@ -10188,70 +10187,70 @@
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="39" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="68.140625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="8" max="8" width="9.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="68.1796875" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
       <c r="I8" s="80"/>
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
@@ -10319,7 +10318,7 @@
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
@@ -10352,7 +10351,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
@@ -10385,7 +10384,7 @@
       </c>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>31</v>
       </c>
@@ -10418,7 +10417,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -10451,7 +10450,7 @@
       </c>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>42</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
@@ -10519,7 +10518,7 @@
       </c>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>50</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>58</v>
       </c>
@@ -10587,7 +10586,7 @@
       </c>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>65</v>
       </c>
@@ -10620,7 +10619,7 @@
       </c>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -10653,7 +10652,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>75</v>
       </c>
@@ -10686,7 +10685,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>80</v>
       </c>
@@ -10719,7 +10718,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>85</v>
       </c>
@@ -10754,7 +10753,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>89</v>
       </c>
@@ -10787,7 +10786,7 @@
       </c>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="50" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>94</v>
       </c>
@@ -10822,7 +10821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>97</v>
       </c>
@@ -10855,7 +10854,7 @@
       </c>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>102</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>109</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>109</v>
       </c>
@@ -10960,7 +10959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>118</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>109</v>
       </c>
@@ -11030,7 +11029,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>109</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>129</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>129</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>136</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>141</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>146</v>
       </c>
@@ -11238,7 +11237,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>148</v>
       </c>
@@ -11271,7 +11270,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>150</v>
       </c>
@@ -11304,7 +11303,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>152</v>
       </c>
@@ -11337,7 +11336,7 @@
       </c>
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>154</v>
       </c>
@@ -11370,7 +11369,7 @@
       </c>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>156</v>
       </c>
@@ -11403,7 +11402,7 @@
       </c>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>158</v>
       </c>
@@ -11436,7 +11435,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>160</v>
       </c>
@@ -11469,7 +11468,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>162</v>
       </c>
@@ -11502,7 +11501,7 @@
       </c>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>164</v>
       </c>
@@ -11535,7 +11534,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>166</v>
       </c>
@@ -11568,7 +11567,7 @@
       </c>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>168</v>
       </c>
@@ -11601,7 +11600,7 @@
       </c>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>170</v>
       </c>
@@ -11634,7 +11633,7 @@
       </c>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>172</v>
       </c>
@@ -11667,7 +11666,7 @@
       </c>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>174</v>
       </c>
@@ -11700,7 +11699,7 @@
       </c>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>176</v>
       </c>
@@ -11733,7 +11732,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>178</v>
       </c>
@@ -11766,18 +11765,18 @@
       </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="55" spans="1:11" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="54"/>
       <c r="B55" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B57" s="55" t="s">
         <v>182</v>
       </c>
@@ -11804,34 +11803,34 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="70" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>186</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>191</v>
       </c>
@@ -11883,7 +11882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>194</v>
       </c>
@@ -11909,7 +11908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>197</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>200</v>
       </c>
@@ -11961,7 +11960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>203</v>
       </c>
@@ -11987,7 +11986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>206</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>209</v>
       </c>
@@ -12039,7 +12038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>212</v>
       </c>
@@ -12065,7 +12064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>215</v>
       </c>
@@ -12091,7 +12090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>218</v>
       </c>
@@ -12117,7 +12116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>221</v>
       </c>
@@ -12143,7 +12142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>224</v>
       </c>
@@ -12169,7 +12168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>227</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>230</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>233</v>
       </c>
@@ -12247,7 +12246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>236</v>
       </c>
@@ -12273,7 +12272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>239</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>242</v>
       </c>
@@ -12325,7 +12324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>245</v>
       </c>
@@ -12351,7 +12350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>248</v>
       </c>
@@ -12377,7 +12376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F26" s="22">
         <v>9</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F27" s="22">
         <v>11</v>
       </c>
@@ -12405,7 +12404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F28" s="22">
         <v>11</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F29" s="22">
         <v>12</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F30" s="22">
         <v>12</v>
       </c>
@@ -12447,7 +12446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F31" s="22">
         <v>13</v>
       </c>
@@ -12461,7 +12460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F32" s="22">
         <v>14</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F33" s="22">
         <v>15</v>
       </c>
@@ -12489,7 +12488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F34" s="22">
         <v>16</v>
       </c>
@@ -12503,7 +12502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F35" s="22">
         <v>17</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F36" s="22">
         <v>18</v>
       </c>
@@ -12531,7 +12530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F37" s="22">
         <v>19</v>
       </c>
@@ -12545,7 +12544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F38" s="22">
         <v>20</v>
       </c>
@@ -12559,7 +12558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F39" s="22">
         <v>21</v>
       </c>
@@ -12573,57 +12572,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.35">
       <c r="G40" s="52"/>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.35">
       <c r="G42" s="52"/>
     </row>
-    <row r="43" spans="6:9" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="6:9" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:9" collapsed="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="6:9" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G44" s="52"/>
     </row>
-    <row r="45" spans="6:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="6:9" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="6:9" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G46" s="52"/>
     </row>
-    <row r="47" spans="6:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="6:9" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="6:9" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G48" s="52"/>
     </row>
-    <row r="49" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G50" s="52"/>
     </row>
-    <row r="51" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G52" s="52"/>
     </row>
-    <row r="53" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G54" s="52"/>
     </row>
-    <row r="55" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G56" s="52"/>
     </row>
-    <row r="57" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G58" s="52"/>
     </row>
-    <row r="59" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G60" s="52"/>
     </row>
-    <row r="61" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="G62" s="52"/>
     </row>
-    <row r="63" spans="7:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="7:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="7:7" hidden="1" collapsed="1" x14ac:dyDescent="0.35"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="66" hidden="1" collapsed="1" x14ac:dyDescent="0.35"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="C5:D25" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F24">
@@ -12639,120 +12638,120 @@
   <dimension ref="A3:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>426</v>
       </c>
@@ -12773,34 +12772,34 @@
       <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="35" customWidth="1"/>
+    <col min="9" max="10" width="15.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="69" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="29" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>260</v>
       </c>
@@ -12844,7 +12843,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>269</v>
       </c>
@@ -12895,7 +12894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>269</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>269</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>269</v>
       </c>
@@ -13046,7 +13045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>269</v>
       </c>
@@ -13097,7 +13096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>269</v>
       </c>
@@ -13148,7 +13147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>269</v>
       </c>
@@ -13199,7 +13198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>269</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>269</v>
       </c>
@@ -13301,7 +13300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>269</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>269</v>
       </c>
@@ -13403,7 +13402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>269</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>269</v>
       </c>
@@ -13505,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>269</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>269</v>
       </c>
@@ -13607,7 +13606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>269</v>
       </c>
@@ -13658,7 +13657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>269</v>
       </c>
@@ -13709,7 +13708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>269</v>
       </c>
@@ -13760,7 +13759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>269</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>269</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>269</v>
       </c>
@@ -13911,7 +13910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>269</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>269</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>269</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>269</v>
       </c>
@@ -14115,7 +14114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>269</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>269</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>269</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>269</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>269</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>269</v>
       </c>
@@ -14421,7 +14420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>269</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>269</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>269</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>269</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>269</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>269</v>
       </c>
@@ -14727,7 +14726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>269</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>269</v>
       </c>
@@ -14829,7 +14828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>269</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>269</v>
       </c>
@@ -14931,7 +14930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
         <v>269</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>269</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>269</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>269</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="24" t="s">
         <v>269</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="s">
         <v>269</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
         <v>269</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="s">
         <v>269</v>
       </c>
@@ -15339,7 +15338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>269</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>269</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>269</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>269</v>
       </c>
@@ -15543,7 +15542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>269</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>269</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>269</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>269</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>269</v>
       </c>
@@ -15798,7 +15797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="24" t="s">
         <v>269</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="24" t="s">
         <v>269</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>269</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>269</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="24" t="s">
         <v>269</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="24" t="s">
         <v>269</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
         <v>269</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>269</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
         <v>269</v>
       </c>
@@ -16257,7 +16256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>269</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="24" t="s">
         <v>269</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>269</v>
       </c>
@@ -16410,7 +16409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
         <v>269</v>
       </c>
@@ -16461,7 +16460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="72" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="72" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="24" t="s">
         <v>269</v>
       </c>
@@ -16512,7 +16511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A77" s="24" t="s">
         <v>269</v>
       </c>
@@ -16563,7 +16562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="s">
         <v>269</v>
       </c>
@@ -16614,7 +16613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A79" s="24" t="s">
         <v>269</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="24" t="s">
         <v>269</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
         <v>269</v>
       </c>
@@ -16767,7 +16766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="24" t="s">
         <v>269</v>
       </c>
@@ -16818,7 +16817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
         <v>269</v>
       </c>
@@ -16869,7 +16868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="24" t="s">
         <v>269</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="24" t="s">
         <v>269</v>
       </c>
@@ -16971,7 +16970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="24" t="s">
         <v>269</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A87" s="24" t="s">
         <v>269</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="24" t="s">
         <v>269</v>
       </c>
@@ -17124,7 +17123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A89" s="24" t="s">
         <v>269</v>
       </c>
@@ -17175,7 +17174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A90" s="24" t="s">
         <v>269</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A91" s="24" t="s">
         <v>269</v>
       </c>
@@ -17277,7 +17276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
         <v>269</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="24" t="s">
         <v>269</v>
       </c>
@@ -17379,7 +17378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A94" s="24" t="s">
         <v>269</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A95" s="24" t="s">
         <v>269</v>
       </c>
@@ -17481,7 +17480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A96" s="24" t="s">
         <v>269</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="24" t="s">
         <v>269</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="24" t="s">
         <v>269</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="24" t="s">
         <v>269</v>
       </c>
@@ -17685,7 +17684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="24" t="s">
         <v>269</v>
       </c>
@@ -17736,7 +17735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
         <v>269</v>
       </c>
@@ -17787,7 +17786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="24" t="s">
         <v>269</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="24" t="s">
         <v>269</v>
       </c>
@@ -17889,7 +17888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="24" t="s">
         <v>269</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="24" t="s">
         <v>269</v>
       </c>
@@ -17991,7 +17990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="24" t="s">
         <v>269</v>
       </c>
@@ -18042,7 +18041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="24" t="s">
         <v>269</v>
       </c>
@@ -18093,7 +18092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="24" t="s">
         <v>269</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="24" t="s">
         <v>269</v>
       </c>
@@ -18195,7 +18194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>269</v>
       </c>
@@ -18246,7 +18245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A111" s="24" t="s">
         <v>269</v>
       </c>
@@ -18297,7 +18296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A112" s="24" t="s">
         <v>269</v>
       </c>
@@ -18348,7 +18347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A113" s="24" t="s">
         <v>269</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>269</v>
       </c>
@@ -18450,7 +18449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>269</v>
       </c>
@@ -18501,7 +18500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>269</v>
       </c>
@@ -18552,7 +18551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="116" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>269</v>
       </c>
@@ -18603,7 +18602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
         <v>269</v>
       </c>
@@ -18654,7 +18653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>269</v>
       </c>
@@ -18705,7 +18704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="24" t="s">
         <v>269</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="24" t="s">
         <v>269</v>
       </c>
@@ -18807,7 +18806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="24" t="s">
         <v>269</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A123" s="24" t="s">
         <v>269</v>
       </c>
@@ -18909,7 +18908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A124" s="24" t="s">
         <v>269</v>
       </c>
@@ -18960,7 +18959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A125" s="24" t="s">
         <v>269</v>
       </c>
@@ -19011,7 +19010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A126" s="24" t="s">
         <v>269</v>
       </c>
@@ -19062,7 +19061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A127" s="24" t="s">
         <v>269</v>
       </c>
@@ -19113,7 +19112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="24" t="s">
         <v>269</v>
       </c>
@@ -19164,7 +19163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="24" t="s">
         <v>269</v>
       </c>
@@ -19215,7 +19214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="24" t="s">
         <v>269</v>
       </c>
@@ -19264,7 +19263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="24" t="s">
         <v>269</v>
       </c>
@@ -19315,7 +19314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="24" t="s">
         <v>269</v>
       </c>
@@ -19366,7 +19365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="24" t="s">
         <v>269</v>
       </c>
@@ -19415,7 +19414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="24" t="s">
         <v>269</v>
       </c>
@@ -19466,7 +19465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="24" t="s">
         <v>269</v>
       </c>
@@ -19517,7 +19516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="24" t="s">
         <v>269</v>
       </c>
@@ -19568,7 +19567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
         <v>269</v>
       </c>
@@ -19619,7 +19618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="24" t="s">
         <v>269</v>
       </c>
@@ -19670,7 +19669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="24" t="s">
         <v>269</v>
       </c>
@@ -19721,7 +19720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="24" t="s">
         <v>269</v>
       </c>
@@ -19772,7 +19771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="24" t="s">
         <v>269</v>
       </c>
@@ -19823,7 +19822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="24" t="s">
         <v>269</v>
       </c>
@@ -19874,7 +19873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="24" t="s">
         <v>269</v>
       </c>
@@ -19925,7 +19924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="24" t="s">
         <v>269</v>
       </c>
@@ -19976,7 +19975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="24" t="s">
         <v>269</v>
       </c>
@@ -20027,7 +20026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="24" t="s">
         <v>269</v>
       </c>
@@ -20078,7 +20077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="24" t="s">
         <v>269</v>
       </c>
@@ -20129,7 +20128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="24" t="s">
         <v>269</v>
       </c>
@@ -20180,7 +20179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="24" t="s">
         <v>269</v>
       </c>
@@ -20231,7 +20230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="24" t="s">
         <v>269</v>
       </c>
@@ -20280,7 +20279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="24" t="s">
         <v>269</v>
       </c>
@@ -20355,17 +20354,17 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>419</v>
       </c>
@@ -20379,7 +20378,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>7.6518319967661197E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -20421,7 +20420,7 @@
         <v>2.5562082232234184E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -20442,7 +20441,7 @@
         <v>3.6094365346494559E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -20463,7 +20462,7 @@
         <v>0.14734057934294553</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -20484,7 +20483,7 @@
         <v>3.7535732962840712E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -20505,7 +20504,7 @@
         <v>3.7123246456672296E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -20526,7 +20525,7 @@
         <v>1.203309530364945E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -20547,7 +20546,7 @@
         <v>3.1021042646602825E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -20568,7 +20567,7 @@
         <v>1.7608652794589667E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -20589,7 +20588,7 @@
         <v>2.7084977521739948E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
@@ -20610,7 +20609,7 @@
         <v>5.6444478233412003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
@@ -20631,7 +20630,7 @@
         <v>1.4637320434345831E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
@@ -20652,7 +20651,7 @@
         <v>8.2813263318675257E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12</v>
       </c>
@@ -20673,7 +20672,7 @@
         <v>1.1790592124763626E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>13</v>
       </c>
@@ -20694,7 +20693,7 @@
         <v>1.878223825161595E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14</v>
       </c>
@@ -20715,7 +20714,7 @@
         <v>1.212254706261056E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>15</v>
       </c>
@@ -20736,7 +20735,7 @@
         <v>1.5073155051767649E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>16</v>
       </c>
@@ -20757,7 +20756,7 @@
         <v>2.9044741531199089E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>16</v>
       </c>
@@ -20778,7 +20777,7 @@
         <v>4.3459847317956317E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>16</v>
       </c>
@@ -20799,7 +20798,7 @@
         <v>8.747058955633723E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>17</v>
       </c>
@@ -20820,7 +20819,7 @@
         <v>7.5326720500027153E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -20841,7 +20840,7 @@
         <v>0.35217213470671987</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>17</v>
       </c>
@@ -20862,7 +20861,7 @@
         <v>4.8102956917497391E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>18</v>
       </c>
@@ -20883,7 +20882,7 @@
         <v>7.1380750843533592E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>18</v>
       </c>
@@ -20904,7 +20903,7 @@
         <v>5.1744573503274972E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>18</v>
       </c>
@@ -20925,7 +20924,7 @@
         <v>8.2052766592678815E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>19</v>
       </c>
@@ -20946,7 +20945,7 @@
         <v>1.0493752666930893E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>19</v>
       </c>
@@ -20967,7 +20966,7 @@
         <v>2.3952997246780991E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>19</v>
       </c>
@@ -20988,7 +20987,7 @@
         <v>6.1507841362641365E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>20</v>
       </c>
@@ -21009,7 +21008,7 @@
         <v>6.691042982799174E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>20</v>
       </c>
@@ -21030,7 +21029,7 @@
         <v>5.8669173631790555E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>20</v>
       </c>
@@ -21051,7 +21050,7 @@
         <v>7.2418434646297436E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>21</v>
       </c>
@@ -21072,7 +21071,7 @@
         <v>3.3652153387529874E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>21</v>
       </c>
@@ -21093,7 +21092,7 @@
         <v>2.880158193481619E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>21</v>
       </c>
@@ -21114,7 +21113,7 @@
         <v>6.3804162313641957E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>425</v>
       </c>
@@ -21131,7 +21130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>426</v>
       </c>
@@ -21159,16 +21158,16 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="76" t="s">
         <v>427</v>
       </c>
@@ -21188,7 +21187,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="73" t="s">
         <v>269</v>
       </c>
@@ -21210,7 +21209,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="73" t="s">
         <v>269</v>
       </c>
@@ -21232,7 +21231,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="73" t="s">
         <v>269</v>
       </c>
@@ -21254,7 +21253,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="73" t="s">
         <v>269</v>
       </c>
@@ -21276,7 +21275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="73" t="s">
         <v>269</v>
       </c>
@@ -21298,7 +21297,7 @@
         <v>CMF-Sw</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="73" t="s">
         <v>269</v>
       </c>
@@ -21320,7 +21319,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="73" t="s">
         <v>269</v>
       </c>
@@ -21342,7 +21341,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="73" t="s">
         <v>269</v>
       </c>
@@ -21364,7 +21363,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>269</v>
       </c>
@@ -21386,7 +21385,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="73" t="s">
         <v>269</v>
       </c>
@@ -21408,7 +21407,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="73" t="s">
         <v>269</v>
       </c>
@@ -21430,7 +21429,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="73" t="s">
         <v>269</v>
       </c>
@@ -21452,7 +21451,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="73" t="s">
         <v>269</v>
       </c>
@@ -21474,7 +21473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>269</v>
       </c>
@@ -21496,7 +21495,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="73" t="s">
         <v>269</v>
       </c>
@@ -21518,7 +21517,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="73" t="s">
         <v>269</v>
       </c>
@@ -21540,7 +21539,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="73" t="s">
         <v>269</v>
       </c>
@@ -21562,7 +21561,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="73" t="s">
         <v>269</v>
       </c>
@@ -21584,7 +21583,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="73" t="s">
         <v>269</v>
       </c>
@@ -21606,7 +21605,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="73" t="s">
         <v>269</v>
       </c>
@@ -21628,7 +21627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="73" t="s">
         <v>269</v>
       </c>
@@ -21650,7 +21649,7 @@
         <v>CMF-Sb</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="73" t="s">
         <v>269</v>
       </c>
@@ -21672,7 +21671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="73" t="s">
         <v>269</v>
       </c>
@@ -21694,7 +21693,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="73" t="s">
         <v>269</v>
       </c>
@@ -21716,7 +21715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="73" t="s">
         <v>269</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="73" t="s">
         <v>269</v>
       </c>
@@ -21760,7 +21759,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="73" t="s">
         <v>269</v>
       </c>
@@ -21782,7 +21781,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="73" t="s">
         <v>269</v>
       </c>
@@ -21804,7 +21803,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="73" t="s">
         <v>269</v>
       </c>
@@ -21826,7 +21825,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="73" t="s">
         <v>269</v>
       </c>
@@ -21848,7 +21847,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="73" t="s">
         <v>269</v>
       </c>
@@ -21870,7 +21869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="73" t="s">
         <v>269</v>
       </c>
@@ -21892,7 +21891,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="73" t="s">
         <v>269</v>
       </c>
@@ -21914,7 +21913,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="73" t="s">
         <v>269</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="73" t="s">
         <v>269</v>
       </c>
@@ -21958,7 +21957,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="73" t="s">
         <v>269</v>
       </c>
@@ -21980,7 +21979,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="73" t="s">
         <v>269</v>
       </c>
@@ -22002,7 +22001,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="73" t="s">
         <v>269</v>
       </c>
@@ -22024,7 +22023,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="73" t="s">
         <v>269</v>
       </c>
@@ -22046,7 +22045,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="73" t="s">
         <v>269</v>
       </c>
@@ -22068,7 +22067,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="73" t="s">
         <v>269</v>
       </c>
@@ -22090,7 +22089,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="73" t="s">
         <v>269</v>
       </c>
@@ -22112,7 +22111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="73" t="s">
         <v>269</v>
       </c>
@@ -22134,7 +22133,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="73" t="s">
         <v>269</v>
       </c>
@@ -22156,7 +22155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="73" t="s">
         <v>269</v>
       </c>
@@ -22178,7 +22177,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="73" t="s">
         <v>269</v>
       </c>
@@ -22200,7 +22199,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="73" t="s">
         <v>269</v>
       </c>
@@ -22222,7 +22221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="73" t="s">
         <v>269</v>
       </c>
@@ -22244,7 +22243,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="73" t="s">
         <v>269</v>
       </c>
@@ -22266,7 +22265,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="73" t="s">
         <v>269</v>
       </c>
@@ -22288,7 +22287,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="73" t="s">
         <v>269</v>
       </c>
@@ -22310,7 +22309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="73" t="s">
         <v>269</v>
       </c>
@@ -22332,7 +22331,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="73" t="s">
         <v>269</v>
       </c>
@@ -22354,7 +22353,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="73" t="s">
         <v>269</v>
       </c>
@@ -22376,7 +22375,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="73" t="s">
         <v>269</v>
       </c>
@@ -22398,7 +22397,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="73" t="s">
         <v>269</v>
       </c>
@@ -22420,7 +22419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="73" t="s">
         <v>269</v>
       </c>
@@ -22442,7 +22441,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="73" t="s">
         <v>269</v>
       </c>
@@ -22464,7 +22463,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="73" t="s">
         <v>269</v>
       </c>
@@ -22486,7 +22485,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="73" t="s">
         <v>269</v>
       </c>
@@ -22508,7 +22507,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="73" t="s">
         <v>269</v>
       </c>
@@ -22530,7 +22529,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="73" t="s">
         <v>269</v>
       </c>
@@ -22552,7 +22551,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="73" t="s">
         <v>269</v>
       </c>
@@ -22574,7 +22573,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="73" t="s">
         <v>269</v>
       </c>
@@ -22596,7 +22595,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="73" t="s">
         <v>269</v>
       </c>
@@ -22618,7 +22617,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="73" t="s">
         <v>269</v>
       </c>
@@ -22640,7 +22639,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="73" t="s">
         <v>269</v>
       </c>
@@ -22662,7 +22661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="73" t="s">
         <v>269</v>
       </c>
@@ -22684,7 +22683,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="73" t="s">
         <v>269</v>
       </c>
@@ -22706,7 +22705,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="73" t="s">
         <v>269</v>
       </c>
@@ -22728,7 +22727,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="73" t="s">
         <v>269</v>
       </c>
@@ -22750,7 +22749,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="73" t="s">
         <v>269</v>
       </c>
@@ -22772,7 +22771,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="73" t="s">
         <v>269</v>
       </c>
@@ -22794,7 +22793,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="73" t="s">
         <v>269</v>
       </c>
@@ -22816,7 +22815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="73" t="s">
         <v>269</v>
       </c>
@@ -22838,7 +22837,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="73" t="s">
         <v>269</v>
       </c>
@@ -22860,7 +22859,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="73" t="s">
         <v>269</v>
       </c>
@@ -22882,7 +22881,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="73" t="s">
         <v>269</v>
       </c>
@@ -22904,7 +22903,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="73" t="s">
         <v>269</v>
       </c>
@@ -22926,7 +22925,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="73" t="s">
         <v>269</v>
       </c>
@@ -22948,7 +22947,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="73" t="s">
         <v>269</v>
       </c>
@@ -22970,7 +22969,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="73" t="s">
         <v>269</v>
       </c>
@@ -22992,7 +22991,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="73" t="s">
         <v>269</v>
       </c>
@@ -23014,7 +23013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="73" t="s">
         <v>269</v>
       </c>
@@ -23036,7 +23035,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="73" t="s">
         <v>269</v>
       </c>
@@ -23058,7 +23057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="73" t="s">
         <v>269</v>
       </c>
@@ -23080,7 +23079,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="73" t="s">
         <v>269</v>
       </c>
@@ -23102,7 +23101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="73" t="s">
         <v>269</v>
       </c>
@@ -23124,7 +23123,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="73" t="s">
         <v>269</v>
       </c>
@@ -23146,7 +23145,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="73" t="s">
         <v>269</v>
       </c>
@@ -23168,7 +23167,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="73" t="s">
         <v>269</v>
       </c>
@@ -23190,7 +23189,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="73" t="s">
         <v>269</v>
       </c>
@@ -23212,7 +23211,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="73" t="s">
         <v>269</v>
       </c>
@@ -23234,7 +23233,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="73" t="s">
         <v>269</v>
       </c>
@@ -23256,7 +23255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="73" t="s">
         <v>269</v>
       </c>
@@ -23278,7 +23277,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="73" t="s">
         <v>269</v>
       </c>
@@ -23300,7 +23299,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="73" t="s">
         <v>269</v>
       </c>
@@ -23322,7 +23321,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="73" t="s">
         <v>269</v>
       </c>
@@ -23344,7 +23343,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="73" t="s">
         <v>269</v>
       </c>
@@ -23366,7 +23365,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="73" t="s">
         <v>269</v>
       </c>
@@ -23388,7 +23387,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="73" t="s">
         <v>269</v>
       </c>
@@ -23410,7 +23409,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="73" t="s">
         <v>269</v>
       </c>
@@ -23432,7 +23431,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="73" t="s">
         <v>269</v>
       </c>
@@ -23454,7 +23453,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="73" t="s">
         <v>269</v>
       </c>
@@ -23476,7 +23475,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="73" t="s">
         <v>269</v>
       </c>
@@ -23498,7 +23497,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="73" t="s">
         <v>269</v>
       </c>
@@ -23520,7 +23519,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="73" t="s">
         <v>269</v>
       </c>
@@ -23542,7 +23541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="73" t="s">
         <v>269</v>
       </c>
@@ -23564,7 +23563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="73" t="s">
         <v>269</v>
       </c>
@@ -23586,7 +23585,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="73" t="s">
         <v>269</v>
       </c>
@@ -23608,7 +23607,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="73" t="s">
         <v>269</v>
       </c>
@@ -23630,7 +23629,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="73" t="s">
         <v>269</v>
       </c>
@@ -23652,7 +23651,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="73" t="s">
         <v>269</v>
       </c>
@@ -23674,7 +23673,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="73" t="s">
         <v>269</v>
       </c>
@@ -23696,7 +23695,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="73" t="s">
         <v>269</v>
       </c>
@@ -23718,7 +23717,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="73" t="s">
         <v>269</v>
       </c>
@@ -23740,7 +23739,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="73" t="s">
         <v>269</v>
       </c>
@@ -23762,7 +23761,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="73" t="s">
         <v>269</v>
       </c>
@@ -23784,7 +23783,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="73" t="s">
         <v>269</v>
       </c>
@@ -23806,7 +23805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="73" t="s">
         <v>269</v>
       </c>
@@ -23828,7 +23827,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="73" t="s">
         <v>269</v>
       </c>
@@ -23850,7 +23849,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="73" t="s">
         <v>269</v>
       </c>
@@ -23872,7 +23871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="73" t="s">
         <v>269</v>
       </c>
@@ -23894,7 +23893,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="73" t="s">
         <v>269</v>
       </c>
@@ -23916,7 +23915,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="73" t="s">
         <v>269</v>
       </c>
@@ -23938,7 +23937,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="73" t="s">
         <v>269</v>
       </c>
@@ -23960,7 +23959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="73" t="s">
         <v>269</v>
       </c>
@@ -23982,7 +23981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="73" t="s">
         <v>269</v>
       </c>
@@ -24004,7 +24003,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="73" t="s">
         <v>269</v>
       </c>
@@ -24026,7 +24025,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="73" t="s">
         <v>269</v>
       </c>
@@ -24048,7 +24047,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="73" t="s">
         <v>269</v>
       </c>
@@ -24070,7 +24069,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="73" t="s">
         <v>269</v>
       </c>
@@ -24092,7 +24091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="73" t="s">
         <v>269</v>
       </c>
@@ -24114,7 +24113,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="73" t="s">
         <v>269</v>
       </c>
@@ -24136,7 +24135,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="73" t="s">
         <v>269</v>
       </c>
@@ -24158,7 +24157,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="73" t="s">
         <v>269</v>
       </c>
@@ -24180,7 +24179,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="73" t="s">
         <v>269</v>
       </c>
@@ -24202,7 +24201,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="73" t="s">
         <v>269</v>
       </c>
@@ -24224,7 +24223,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="73" t="s">
         <v>269</v>
       </c>
@@ -24246,7 +24245,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="73" t="s">
         <v>269</v>
       </c>
@@ -24268,7 +24267,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="73" t="s">
         <v>269</v>
       </c>
@@ -24290,7 +24289,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="73" t="s">
         <v>269</v>
       </c>
